--- a/dakwah/absen-tarbiyah/kosongan.xlsx
+++ b/dakwah/absen-tarbiyah/kosongan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN PROJECT\zen\dakwah\absen-tarbiyah\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN-PROJECT\zen\dakwah\absen-tarbiyah\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFDCAA5-ED20-4AE0-9FAC-E1BBF14E7A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6216020-29CC-4593-BBF0-DA6315574FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{7D2FF171-1EFE-46EA-8313-FDDD65387EF4}"/>
   </bookViews>
@@ -16,19 +16,28 @@
     <sheet name="DT-R " sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'DT-R '!$B$2:$N$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'DT-R '!$B$2:$N$26</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t xml:space="preserve">ABSENSI KEGIATAN </t>
   </si>
@@ -106,9 +115,6 @@
   </si>
   <si>
     <t>Salman</t>
-  </si>
-  <si>
-    <t>Saidar</t>
   </si>
   <si>
     <t>Latif</t>
@@ -1279,10 +1285,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:N27"/>
+      <selection activeCell="B17" sqref="B17:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1450,7 +1456,7 @@
       <c r="N7" s="66"/>
       <c r="O7" s="1"/>
       <c r="P7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="19.5" customHeight="1">
@@ -1474,7 +1480,7 @@
       <c r="N8" s="18"/>
       <c r="O8" s="1"/>
       <c r="P8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="19.5" customHeight="1">
@@ -1498,7 +1504,7 @@
       <c r="N9" s="6"/>
       <c r="O9" s="1"/>
       <c r="P9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="19.5" customHeight="1">
@@ -1522,7 +1528,7 @@
       <c r="N10" s="6"/>
       <c r="O10" s="1"/>
       <c r="P10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="19.5" customHeight="1">
@@ -1633,7 +1639,8 @@
     <row r="16" spans="1:16" ht="19.5" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="7">
-        <v>10</v>
+        <f t="shared" ref="B16:B21" si="0">B15+1</f>
+        <v>9</v>
       </c>
       <c r="C16" s="38" t="s">
         <v>19</v>
@@ -1654,7 +1661,8 @@
     <row r="17" spans="1:15" ht="19.5" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="7">
-        <v>11</v>
+        <f t="shared" ref="B17:B21" si="1">B16+1</f>
+        <v>10</v>
       </c>
       <c r="C17" s="38" t="s">
         <v>25</v>
@@ -1675,7 +1683,8 @@
     <row r="18" spans="1:15" ht="19.5" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="7">
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="C18" s="38" t="s">
         <v>26</v>
@@ -1696,12 +1705,13 @@
     <row r="19" spans="1:15" ht="19.5" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="7">
-        <v>13</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="C19" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="42"/>
+      <c r="D19" s="44"/>
       <c r="E19" s="34"/>
       <c r="F19" s="35"/>
       <c r="G19" s="45"/>
@@ -1717,16 +1727,17 @@
     <row r="20" spans="1:15" ht="19.5" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="7">
-        <v>14</v>
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
       <c r="C20" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="44"/>
+      <c r="D20" s="43"/>
       <c r="E20" s="34"/>
       <c r="F20" s="35"/>
       <c r="G20" s="45"/>
-      <c r="H20" s="46"/>
+      <c r="H20" s="48"/>
       <c r="I20" s="35"/>
       <c r="J20" s="34"/>
       <c r="K20" s="53"/>
@@ -1735,74 +1746,64 @@
       <c r="N20" s="8"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15" ht="19.5" customHeight="1">
+    <row r="21" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="7">
-        <v>15</v>
-      </c>
-      <c r="C21" s="38" t="s">
+      <c r="B21" s="27">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="C21" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="43"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="8"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="30"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
+    <row r="22" spans="1:15">
       <c r="A22" s="1"/>
-      <c r="B22" s="27">
-        <v>16</v>
-      </c>
-      <c r="C22" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="49"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="30"/>
+      <c r="B22" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="57"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N22" s="12"/>
       <c r="O22" s="1"/>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="1"/>
-      <c r="B23" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="M23" s="14"/>
       <c r="N23" s="12"/>
       <c r="O23" s="1"/>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="1"/>
       <c r="B24" s="13"/>
-      <c r="C24" s="19"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="12"/>
       <c r="K24" s="12"/>
       <c r="M24" s="14"/>
@@ -1811,48 +1812,38 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="1"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="20"/>
+      <c r="B25" s="15" t="s">
+        <v>21</v>
+      </c>
       <c r="D25" s="12"/>
+      <c r="E25" s="16" t="s">
+        <v>21</v>
+      </c>
       <c r="K25" s="12"/>
       <c r="M25" s="14"/>
       <c r="N25" s="12"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" ht="15.75" thickBot="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="K26" s="12"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="12"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="10"/>
       <c r="O26" s="1"/>
-    </row>
-    <row r="27" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A27" s="1"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B22:D22"/>
     <mergeCell ref="B2:N2"/>
     <mergeCell ref="B3:N3"/>
     <mergeCell ref="B4:N4"/>
@@ -1861,7 +1852,7 @@
     <mergeCell ref="D6:K6"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="N6:N7"/>
-    <mergeCell ref="E23:K23"/>
+    <mergeCell ref="E22:K22"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.44" bottom="0.52" header="0.3" footer="0.3"/>
